--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
@@ -80,18 +80,10 @@
     <t>@i+1</t>
   </si>
   <si>
-    <t>@var ticket=deliveryOrder,var items = deliveryOrderItems;""</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>@ticket.no</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>@ticket.createTime.toLocaleDateString()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>@ticket.personName</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -132,15 +124,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>送货时间：@ticket.deliverTime==null?'':ticket.DeliverTime.toLocaleDateString()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>车牌号：@ticket.carNum</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>送货司机：@ticket.driver</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ticket.createTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货时间：@ticket.deliverTime==null?'':ticket.deliverTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>@var ticket=deliveryOrder;var items = deliveryOrderItems;""</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -359,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +416,51 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -428,50 +485,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,7 +798,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,116 +817,116 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="15" t="s">
-        <v>19</v>
+      <c r="G1" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="34"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="34"/>
+      <c r="F2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="20"/>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="35"/>
+      <c r="I2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="21"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="29" t="s">
+      <c r="B3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="39"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="27"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -927,51 +945,51 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="J8" s="41" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="18"/>
+      <c r="I9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="33"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1018,6 +1036,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -1025,19 +1056,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>#SET TABLE COLUMNS 10</t>
   </si>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>@ticket.personName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>@items[i].materialNo</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -116,22 +112,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>@ticket.factory</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ticket.destination</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌号：@ticket.carNum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货司机：@ticket.driver</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>@ticket.createTime</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -141,6 +121,18 @@
   </si>
   <si>
     <t>@var ticket=deliveryOrder;var items = deliveryOrderItems;""</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ticket.createPersonName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货司机：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号：</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -419,6 +411,57 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -437,59 +480,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,7 +790,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,126 +809,122 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="42" t="s">
-        <v>34</v>
+      <c r="G1" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="F2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="37"/>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="21"/>
+      <c r="I2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="38"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="27"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
@@ -948,48 +936,48 @@
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>27</v>
       </c>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1036,6 +1024,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="F5:F6"/>
@@ -1043,19 +1044,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>#SET TABLE COLUMNS 10</t>
   </si>
@@ -38,12 +38,6 @@
     <t>责任人：</t>
   </si>
   <si>
-    <t>使用单位</t>
-  </si>
-  <si>
-    <t>出货单位</t>
-  </si>
-  <si>
     <t>出库零件列表</t>
   </si>
   <si>
@@ -116,23 +110,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>@var ticket=deliveryOrder;var items = deliveryOrderItems;""</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ticket.createPersonName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>送货时间：@ticket.deliverTime==null?'':ticket.deliverTime</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>@var ticket=deliveryOrder;var items = deliveryOrderItems;""</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ticket.createPersonName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货司机：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌号：</t>
+    <t>送货司机：@ticket.driverName==null?'':ticket.driverName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号：@ticket.liscensePlateNumber==null?'':ticket.liscensePlateNumber</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,9 +368,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +408,36 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -440,48 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,7 +778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -809,176 +788,172 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="20" t="s">
-        <v>29</v>
+      <c r="G1" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="37"/>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21"/>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -991,59 +966,43 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="J15" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
